--- a/data/trans_dic/P20B-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P20B-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P20B-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P20B-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>29,02%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>30,43%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>25,45%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,42%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,24%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,05%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,52%</t>
         </is>
       </c>
     </row>
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>8,04; 66,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>7,87; 56,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>7,99; 52,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,42 +744,42 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>0,0; 13,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>2,82; 26,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>0,0; 24,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>0,0; 58,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>2,52; 21,66</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,82</t>
+          <t>8,24; 30,02</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>4,52; 25,63</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>0,0; 45,98</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,04%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,29%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,12%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,51%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>8,55; 48,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>6,29; 35,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>0,0; 39,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>0,0; 68,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>2,94; 16,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,34</t>
+          <t>2,29; 12,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,14</t>
+          <t>3,02; 16,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>0,0; 21,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,06</t>
+          <t>6,46; 19,85</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,73</t>
+          <t>4,81; 16,09</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,62</t>
+          <t>3,69; 16,59</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,82</t>
+          <t>4,42; 28,63</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,04%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,95%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,43%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,38%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,44%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,02%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,47%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,94%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,21%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,39%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,43%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,1%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>17,19; 61,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>17,8; 52,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>23,39; 67,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>7,89; 51,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>8,12; 35,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>20,49; 45,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>6,19; 28,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>12,87; 35,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>14,77; 37,16</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>22,77; 43,48</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>15,1; 35,88</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,46</t>
+          <t>13,98; 35,4</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,03%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,53%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,53%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,86%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,54%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,1%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,29%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,34%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,0%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,03%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,28%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>4,42; 38,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>24,76; 60,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>24,02; 66,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>22,07; 54,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>19,37; 56,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>35,01; 64,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>27,2; 63,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>30,66; 58,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>16,81; 42,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,55</t>
+          <t>35,87; 58,27</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,82</t>
+          <t>31,2; 58,81</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>28,4; 51,36</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,26%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,56%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,2%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,87%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,8%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,36%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,53%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,68%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,73%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,06%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,34%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,69%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>24,67; 66,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>18,55; 53,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>30,27; 66,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>23,97; 50,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>29,75; 68,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>22,06; 58,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>27,01; 70,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>17,25; 42,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>31,47; 60,77</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>25,6; 50,45</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>35,43; 62,49</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,74</t>
+          <t>25,17; 43,56</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,1%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,15%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,23%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,9%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,87%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,84%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,51%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,22%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,13%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,9%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,83%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,59%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>8,38; 33,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>14,38; 37,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>14,05; 37,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>23,48; 41,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>15,68; 37,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,55</t>
+          <t>14,36; 33,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>23,04; 48,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,46</t>
+          <t>16,9; 31,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,79</t>
+          <t>15,27; 31,43</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,44</t>
+          <t>17,09; 31,81</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,62</t>
+          <t>22,09; 38,49</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>22,02; 34,0</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,24%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,72%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,7%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,21%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,2%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,59%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,36%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,73%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,32%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,56%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,87%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,48%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,41</t>
+          <t>19,75; 33,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,99</t>
+          <t>23,42; 37,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,24</t>
+          <t>26,65; 42,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>26,58; 39,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>15,55; 25,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>20,11; 29,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>19,59; 30,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>17,87; 28,71</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>18,4; 26,81</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>23,22; 30,67</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>23,57; 32,47</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>23,77; 31,45</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P20B-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P20B-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>14,24%</t>
+          <t>14,56%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>13,66%</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,55</t>
+          <t>0,0; 59,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,98</t>
+          <t>0,0; 46,23</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>32,29%</t>
+          <t>33,15%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>14,68%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 68,9</t>
+          <t>0,0; 69,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,16</t>
+          <t>0,0; 22,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,42; 28,63</t>
+          <t>4,93; 30,7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>23,38%</t>
+          <t>23,36%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>22,94%</t>
+          <t>22,74%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>23,1%</t>
+          <t>22,97%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,89; 51,36</t>
+          <t>7,88; 51,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,87; 35,82</t>
+          <t>12,42; 35,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,98; 35,4</t>
+          <t>14,11; 35,76</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>37,86%</t>
+          <t>38,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>43,29%</t>
+          <t>43,24%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>40,28%</t>
+          <t>40,29%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,07; 54,46</t>
+          <t>21,88; 54,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,66; 58,02</t>
+          <t>30,98; 58,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>28,4; 51,36</t>
+          <t>28,4; 51,52</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>36,87%</t>
+          <t>37,01%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>28,68%</t>
+          <t>29,1%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>33,69%</t>
+          <t>33,97%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>23,97; 50,18</t>
+          <t>24,09; 50,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,25; 42,15</t>
+          <t>17,63; 42,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>25,17; 43,56</t>
+          <t>25,41; 43,94</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>21,89%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>25,15%</t>
+          <t>34,41%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>24,23%</t>
+          <t>23,86%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>31,9%</t>
+          <t>41,51%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>24,87%</t>
+          <t>33,89%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>22,84%</t>
+          <t>33,05%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>34,51%</t>
+          <t>45,12%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>23,22%</t>
+          <t>21,23%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>22,13%</t>
+          <t>28,64%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>23,9%</t>
+          <t>33,68%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>29,83%</t>
+          <t>33,29%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>27,59%</t>
+          <t>33,65%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,38; 33,3</t>
+          <t>7,51; 42,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,38; 37,97</t>
+          <t>18,44; 55,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,05; 37,33</t>
+          <t>11,45; 40,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23,48; 41,45</t>
+          <t>28,4; 54,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,68; 37,31</t>
+          <t>20,92; 52,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>14,36; 33,46</t>
+          <t>17,99; 47,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>23,04; 48,04</t>
+          <t>26,73; 65,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,9; 31,54</t>
+          <t>10,71; 35,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>15,27; 31,43</t>
+          <t>18,5; 42,93</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>17,09; 31,81</t>
+          <t>22,51; 46,08</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>22,09; 38,49</t>
+          <t>22,31; 45,51</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>22,02; 34,0</t>
+          <t>24,97; 43,41</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>26,24%</t>
+          <t>13,67%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>29,72%</t>
+          <t>17,62%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>33,7%</t>
+          <t>24,87%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>33,21%</t>
+          <t>20,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>20,2%</t>
+          <t>16,81%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>24,59%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>24,36%</t>
+          <t>26,87%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>22,73%</t>
+          <t>24,34%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>22,32%</t>
+          <t>15,64%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>26,56%</t>
+          <t>16,24%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>27,87%</t>
+          <t>26,17%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>27,48%</t>
+          <t>22,47%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>4,18; 35,48</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>5,79; 39,68</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>10,78; 46,24</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>9,91; 33,18</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>6,41; 34,29</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>7,26; 28,73</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>14,15; 48,11</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>15,09; 34,29</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>7,61; 27,16</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>8,36; 26,59</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>15,66; 40,0</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>15,8; 30,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>26,24%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>29,72%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>33,7%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>33,12%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>20,2%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>24,59%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>24,36%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>22,99%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>22,32%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>26,56%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>27,87%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>27,69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>19,75; 33,9</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>23,42; 37,28</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>26,65; 42,15</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>26,58; 39,38</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>26,42; 39,33</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>15,55; 25,58</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>20,11; 29,77</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>19,59; 30,26</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>17,87; 28,71</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>18,07; 28,68</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>18,4; 26,81</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>23,22; 30,67</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>23,57; 32,47</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>23,77; 31,45</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>23,86; 31,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P20B-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P20B-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,17 +725,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,04; 66,4</t>
+          <t>8,35; 66,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,87; 56,51</t>
+          <t>8,26; 58,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,99; 52,52</t>
+          <t>8,01; 58,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,42 +745,42 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,92</t>
+          <t>0,0; 14,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,82; 26,1</t>
+          <t>2,79; 23,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,38</t>
+          <t>0,0; 24,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 59,07</t>
+          <t>0,0; 59,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,52; 21,66</t>
+          <t>2,61; 23,44</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,24; 30,02</t>
+          <t>8,17; 29,93</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,52; 25,63</t>
+          <t>4,5; 25,61</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,23</t>
+          <t>0,0; 52,59</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,55; 48,09</t>
+          <t>10,24; 47,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,29; 35,26</t>
+          <t>6,45; 36,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,26</t>
+          <t>0,0; 45,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 69,38</t>
+          <t>6,09; 71,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,94; 16,11</t>
+          <t>2,99; 16,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,29; 12,77</t>
+          <t>2,28; 13,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,02; 16,94</t>
+          <t>2,94; 16,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,31</t>
+          <t>0,0; 21,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,46; 19,85</t>
+          <t>7,08; 20,03</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,81; 16,09</t>
+          <t>4,81; 15,27</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,69; 16,59</t>
+          <t>3,68; 16,66</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,93; 30,7</t>
+          <t>5,07; 28,43</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,19; 61,75</t>
+          <t>16,26; 61,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,8; 52,89</t>
+          <t>18,22; 53,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>23,39; 67,61</t>
+          <t>22,62; 65,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,88; 51,67</t>
+          <t>7,32; 49,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,12; 35,78</t>
+          <t>8,08; 36,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,49; 45,54</t>
+          <t>20,16; 46,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,19; 28,76</t>
+          <t>7,01; 29,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,42; 35,5</t>
+          <t>13,01; 36,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,77; 37,16</t>
+          <t>14,43; 38,11</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>22,77; 43,48</t>
+          <t>22,28; 42,1</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,1; 35,88</t>
+          <t>15,86; 35,64</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,11; 35,76</t>
+          <t>12,78; 33,76</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,42; 38,69</t>
+          <t>4,27; 36,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,76; 60,88</t>
+          <t>26,43; 60,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,02; 66,77</t>
+          <t>20,95; 63,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,88; 54,49</t>
+          <t>23,07; 56,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,37; 56,22</t>
+          <t>20,71; 60,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>35,01; 64,97</t>
+          <t>34,55; 63,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,2; 63,11</t>
+          <t>29,72; 65,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,98; 58,45</t>
+          <t>29,88; 57,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,81; 42,89</t>
+          <t>16,82; 41,76</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>35,87; 58,27</t>
+          <t>36,79; 58,27</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>31,2; 58,81</t>
+          <t>31,42; 59,91</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>28,4; 51,52</t>
+          <t>29,32; 51,65</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,67; 66,13</t>
+          <t>24,5; 69,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>18,55; 53,13</t>
+          <t>14,91; 53,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,27; 66,52</t>
+          <t>30,31; 66,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24,09; 50,26</t>
+          <t>23,17; 49,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,75; 68,73</t>
+          <t>26,34; 67,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,06; 58,54</t>
+          <t>25,05; 61,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>27,01; 70,54</t>
+          <t>27,2; 70,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,63; 42,58</t>
+          <t>18,86; 43,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>31,47; 60,77</t>
+          <t>33,24; 62,51</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>25,6; 50,45</t>
+          <t>24,33; 49,98</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>35,43; 62,49</t>
+          <t>33,61; 60,58</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>25,41; 43,94</t>
+          <t>24,76; 43,79</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,51; 42,36</t>
+          <t>7,79; 45,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>18,44; 55,06</t>
+          <t>16,99; 53,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,45; 40,22</t>
+          <t>11,17; 39,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>28,4; 54,83</t>
+          <t>28,47; 55,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,92; 52,2</t>
+          <t>18,7; 52,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>17,99; 47,95</t>
+          <t>20,59; 50,83</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>26,73; 65,07</t>
+          <t>26,98; 64,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,71; 35,45</t>
+          <t>9,79; 34,85</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18,5; 42,93</t>
+          <t>17,87; 41,01</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>22,51; 46,08</t>
+          <t>22,45; 45,46</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>22,31; 45,51</t>
+          <t>22,46; 45,6</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>24,97; 43,41</t>
+          <t>24,55; 43,66</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,18; 35,48</t>
+          <t>4,16; 34,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,79; 39,68</t>
+          <t>5,75; 36,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,78; 46,24</t>
+          <t>10,78; 47,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,91; 33,18</t>
+          <t>10,71; 34,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,41; 34,29</t>
+          <t>6,29; 35,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,26; 28,73</t>
+          <t>5,29; 28,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>14,15; 48,11</t>
+          <t>12,35; 44,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,09; 34,29</t>
+          <t>15,22; 34,24</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,61; 27,16</t>
+          <t>7,51; 28,2</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>8,36; 26,59</t>
+          <t>8,61; 26,61</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>15,66; 40,0</t>
+          <t>15,45; 40,2</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>15,8; 30,87</t>
+          <t>16,43; 30,4</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>19,75; 33,9</t>
+          <t>18,86; 34,1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>23,42; 37,28</t>
+          <t>23,14; 37,79</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>26,65; 42,15</t>
+          <t>26,16; 40,84</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>26,42; 39,33</t>
+          <t>26,4; 39,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>15,55; 25,58</t>
+          <t>15,68; 25,34</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>20,11; 29,77</t>
+          <t>19,77; 29,43</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>19,59; 30,26</t>
+          <t>19,18; 29,62</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>18,07; 28,68</t>
+          <t>18,29; 27,91</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>18,4; 26,81</t>
+          <t>18,3; 26,69</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>23,22; 30,67</t>
+          <t>23,13; 30,62</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>23,57; 32,47</t>
+          <t>23,44; 32,62</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>23,86; 31,59</t>
+          <t>23,49; 31,91</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que estuvo en lista de espera por ingreso hospitalario</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2937</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4507</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3140</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>903</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4020</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2434</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3220</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>3840</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>8527</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>5574</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>3220</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>845; 6686</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1224; 8598</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>988; 7262</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1122</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4141</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>981; 8357</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8041</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13233</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1003; 9019</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>4084; 14967</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2037; 11603</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12394</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>5852</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1809</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>5013</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5870</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4955</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4697</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2698</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>11722</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>10472</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6506</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>7710</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2393; 11140</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1903; 10680</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6074</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>921; 10742</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2192; 11938</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1944; 11275</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1786; 10271</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 8127</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>6846; 19361</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>5524; 17516</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2723; 12319</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2664; 14929</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>6796</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>12259</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>10086</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4987</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6248</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>17898</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>7629</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>8132</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>13044</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>30158</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>17714</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>13119</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2904; 10951</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6780; 19881</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5252; 15305</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1564; 10490</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2737; 12324</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>11268; 25819</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3457; 14762</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4651; 12919</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7464; 19717</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>20739; 39199</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>11506; 25848</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>7300; 19281</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3806</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>13685</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>9755</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>14241</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>9853</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>25717</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>14551</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>12612</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>13659</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>39403</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>24306</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>26853</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>954; 8247</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>8709; 19999</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>4696; 14234</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>8646; 21007</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5355; 15740</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>17580; 32507</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>9382; 20535</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>8715; 16781</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>8109; 20129</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>30846; 48853</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>16958; 32338</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>19542; 34425</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>8100</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>9288</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>15802</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>17243</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>11792</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>11882</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>12248</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>8464</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>19892</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>21170</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>28050</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>25707</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4384; 12502</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4126; 14756</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>9936; 21648</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>10795; 23253</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>6498; 16546</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>7374; 17964</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>6865; 17714</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>5486; 12566</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>14151; 26611</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>13897; 28546</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>19503; 35151</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>18739; 33136</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>5006</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>10124</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>8742</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>14629</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>11095</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>13189</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>4742</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>14968</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>21220</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>21931</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>19371</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1782; 10425</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>4998; 15677</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>4093; 14307</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>10034; 19526</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>5498; 15451</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>6914; 17065</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>7886; 18817</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2186; 7783</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>9342; 21435</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>14140; 28640</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>14796; 30035</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>14134; 25140</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2666</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>6373</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>5417</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>6164</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>5529</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>6695</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>10899</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>9974</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>8196</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>13068</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>16316</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>16138</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>811; 6754</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2081; 13194</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2348; 10418</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>3301; 10742</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>2071; 11543</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2343; 12466</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>5011; 18009</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>6240; 14035</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>3935; 14782</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>6927; 21418</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>9632; 25063</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>11797; 21832</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>35163</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>61754</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>54751</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>62276</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>50158</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>82264</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>65647</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>49843</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>85321</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>144017</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>120398</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>112120</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>25274; 45688</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>48081; 78523</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>42502; 66360</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>49639; 74594</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>38941; 62932</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>66124; 98443</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>51703; 79847</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>39667; 60527</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>69951; 102057</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>125411; 166042</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>101246; 140920</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>95101; 129204</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>